--- a/file-overview.xlsx
+++ b/file-overview.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://casaau-my.sharepoint.com/personal/james_offer_casa_gov_au/Documents/portal-ui/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="0102A49D11BFA8E75CB88AFE1A1DD0E2BC54FFD2" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{10AF18A2-2C86-4EB5-842E-B71E17161581}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="0102A49D11BFA8E75CB88AFE1A1DD0E2BC54FFD2" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{5A83AFE1-8403-469A-AAE9-7BA8741BD629}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" xr2:uid="{40E6BC35-4AFB-4208-A9DC-B277FA2B403F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="205">
   <si>
     <t>arn5.html</t>
   </si>
@@ -325,9 +325,6 @@
     <t>This is for the scenario that a user is awaiting manual verification</t>
   </si>
   <si>
-    <t>Portal Registration</t>
-  </si>
-  <si>
     <t>User Profile</t>
   </si>
   <si>
@@ -386,6 +383,264 @@
   </si>
   <si>
     <t>This file :)</t>
+  </si>
+  <si>
+    <t>recovery2-resend-code-limit.html</t>
+  </si>
+  <si>
+    <t>Resend verification code limit hit</t>
+  </si>
+  <si>
+    <t>Includes guidance on problems receiving codes</t>
+  </si>
+  <si>
+    <t>welcome-edge-cases-submissions.html</t>
+  </si>
+  <si>
+    <t>Screen showing edge cases for submissions</t>
+  </si>
+  <si>
+    <t>add-address.html</t>
+  </si>
+  <si>
+    <t>Add address</t>
+  </si>
+  <si>
+    <t>If a user hasn't already entered their address</t>
+  </si>
+  <si>
+    <t>add-phone.html</t>
+  </si>
+  <si>
+    <t>Add mobile</t>
+  </si>
+  <si>
+    <t>If a user hasn't already entered their mobile</t>
+  </si>
+  <si>
+    <t>Portal Registration &amp; Login</t>
+  </si>
+  <si>
+    <t>index-fail.html</t>
+  </si>
+  <si>
+    <t>update-password-12-months.html</t>
+  </si>
+  <si>
+    <t>index-locked.html</t>
+  </si>
+  <si>
+    <t>Failed login</t>
+  </si>
+  <si>
+    <t>If user tries to set a password used &lt; 12 months previously</t>
+  </si>
+  <si>
+    <t>Locked account screen</t>
+  </si>
+  <si>
+    <t>Applicant with various application histories</t>
+  </si>
+  <si>
+    <t>Worse case' scenario view of max number of application details on screen</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\add-address.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\add-phone.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\address-add-successful.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\address-update-successful.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn1-change-of-name-certificate.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn1-previous-name.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn2-success-change-name.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn3-other-country.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn4.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn5.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn5-poi-not-verified.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn6.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn6-reselect.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn7.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn7-poi-0-attempts-remaining.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn7-poi-not-verified.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn7-poi-upload.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn8.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn8-no-alert.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn9.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\arn9-awaiting-verification.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\cancelled.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\create.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\create-password.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\index.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\index-fail.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\index-locked.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\index-password-reset.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\password-reset.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\personal.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\personal-with-address.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\phone-add-successful.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\phone-update-successful.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\progress.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\recovery1.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\recovery2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\recovery2-resend-code.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\recovery2-resend-code-limit.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\recovery3.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\saved.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\signed-out.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\signed-out-generic.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\update-address.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\update-address-manually.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\update-password.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\update-password-12-months.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\update-phone.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\validate.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\validate2.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\welcome.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\welcome-account-created.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\welcome-arn-issued.html</t>
+  </si>
+  <si>
+    <t>C:\Users\offer_j\OneDrive - CASA Production Domain\portal-ui\welcome-edge-cases-submissions.html</t>
+  </si>
+  <si>
+    <t>address-add-successful.html</t>
+  </si>
+  <si>
+    <t>personal-with-address.html</t>
+  </si>
+  <si>
+    <t>phone-add-successful.html</t>
+  </si>
+  <si>
+    <t>signed-out.html</t>
+  </si>
+  <si>
+    <t>signed-out-generic.html</t>
+  </si>
+  <si>
+    <t>Add phone successfully</t>
+  </si>
+  <si>
+    <t>Add address successfully</t>
+  </si>
+  <si>
+    <t>Profile of someone with address and mobile</t>
+  </si>
+  <si>
+    <t>User signed out after active sign out</t>
+  </si>
+  <si>
+    <t>User signed out after inactivity</t>
   </si>
 </sst>
 </file>
@@ -429,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -437,6 +692,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FB128D-5785-459D-A77B-FDD025E1B97C}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,465 +1114,584 @@
         <v>72</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>100</v>
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
+      <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
+      <c r="A15" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
+      <c r="A35" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
-        <v>61</v>
+      <c r="A44" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>103</v>
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" t="s">
-        <v>98</v>
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>104</v>
+      <c r="A60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>110</v>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
         <v>118</v>
       </c>
-      <c r="C68" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A56">
+  <sortState ref="A3:A66">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1322,11 +1700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A90068-128C-4236-826D-B46CBE583EB3}">
-  <dimension ref="A1:A44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60081255-BE5B-4578-BAF1-D0E5689CEF7A}">
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,228 +1712,498 @@
     <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A1:A44">
+  <sortState ref="A1:A55">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
